--- a/data/cd_fcv.xlsx
+++ b/data/cd_fcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.7830189875931257</v>
+        <v>0.8025081255048028</v>
       </c>
       <c r="D2">
-        <v>0.6654315622273212</v>
+        <v>0.02356802553124964</v>
       </c>
       <c r="E2">
-        <v>0.7703900954115775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.6714808653926208</v>
+      </c>
+      <c r="F2">
+        <v>0.02608003172789519</v>
+      </c>
+      <c r="G2">
+        <v>0.7728582787472581</v>
+      </c>
+      <c r="H2">
+        <v>0.01657077722819842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.7770207974946768</v>
+        <v>0.7974741785752899</v>
       </c>
       <c r="D3">
-        <v>0.6477150543662029</v>
+        <v>0.01992704435182157</v>
       </c>
       <c r="E3">
-        <v>0.7636078166454583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.647180368849116</v>
+      </c>
+      <c r="F3">
+        <v>0.02407491536831224</v>
+      </c>
+      <c r="G3">
+        <v>0.7701251337001042</v>
+      </c>
+      <c r="H3">
+        <v>0.01740480239606836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.7429366592089477</v>
+        <v>0.7382144119644479</v>
       </c>
       <c r="D4">
-        <v>0.645695390527623</v>
+        <v>0.0317805925855184</v>
       </c>
       <c r="E4">
-        <v>0.7316462072925062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.6382159588736129</v>
+      </c>
+      <c r="F4">
+        <v>0.02306334582189203</v>
+      </c>
+      <c r="G4">
+        <v>0.7286168171583105</v>
+      </c>
+      <c r="H4">
+        <v>0.01362171461298567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7665873662572551</v>
+        <v>0.765062159800849</v>
       </c>
       <c r="D5">
-        <v>0.6240664749545483</v>
+        <v>0.02883513785210558</v>
       </c>
       <c r="E5">
-        <v>0.7291838498057532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6525911950291723</v>
+      </c>
+      <c r="F5">
+        <v>0.03895014491171871</v>
+      </c>
+      <c r="G5">
+        <v>0.7326965321209434</v>
+      </c>
+      <c r="H5">
+        <v>0.02277228366219797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.7055043132729375</v>
+        <v>0.7439006295713522</v>
       </c>
       <c r="D6">
-        <v>0.5187363849336589</v>
+        <v>0.03012637725099197</v>
       </c>
       <c r="E6">
-        <v>0.6821475238482863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.5317685434439352</v>
+      </c>
+      <c r="F6">
+        <v>0.0228584746169964</v>
+      </c>
+      <c r="G6">
+        <v>0.7098032611002263</v>
+      </c>
+      <c r="H6">
+        <v>0.01657264814403177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.7626022564069027</v>
+        <v>0.822885070482641</v>
       </c>
       <c r="D7">
-        <v>0.5799588719449347</v>
+        <v>0.03324605361348739</v>
       </c>
       <c r="E7">
-        <v>0.7314716223742387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.6967736195355544</v>
+      </c>
+      <c r="F7">
+        <v>0.03429055084177973</v>
+      </c>
+      <c r="G7">
+        <v>0.7834316660479297</v>
+      </c>
+      <c r="H7">
+        <v>0.01964014027279924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.5998035089101168</v>
+        <v>0.8071183292856168</v>
       </c>
       <c r="D8">
-        <v>0.5027487591665356</v>
+        <v>0.02190890165737961</v>
       </c>
       <c r="E8">
-        <v>0.5989174123847275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.7920022409465155</v>
-      </c>
-      <c r="D9">
-        <v>0.706416079666083</v>
-      </c>
-      <c r="E9">
-        <v>0.7846532829799514</v>
+        <v>0.7155770806149129</v>
+      </c>
+      <c r="F8">
+        <v>0.02325134259473407</v>
+      </c>
+      <c r="G8">
+        <v>0.7918632246472048</v>
+      </c>
+      <c r="H8">
+        <v>0.01792339290204064</v>
       </c>
     </row>
   </sheetData>
